--- a/pumas.xlsx
+++ b/pumas.xlsx
@@ -460,24 +460,24 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tenis PUMA x STAPLE PUMA-180</t>
+          <t>Tenis RS-X Triple</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mex$1649.50</t>
+          <t>Mex$1679.30</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tenis Puma Shuffle</t>
+          <t>Tenis PUMA x STAPLE PUMA-180</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mex$749.50</t>
+          <t>Mex$1649.50</t>
         </is>
       </c>
     </row>
@@ -508,72 +508,72 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tenis para correr para hombre Softride Enzo NXT</t>
+          <t>Tenis PUMA-180 CARROTS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mex$999.50</t>
+          <t>Mex$2399.00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tenis PUMA-180</t>
+          <t>Tenis para correr para hombre Softride Enzo NXT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mex$1539.30</t>
+          <t>Mex$999.50</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tenis RS-X Triple</t>
+          <t>Tenis All Day Active</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mex$1679.30</t>
+          <t>Mex$749.50</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tenis PUMA-180 CARROTS</t>
+          <t>Tenis clásicos de mujer Mayze</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mex$2399.00</t>
+          <t>Mex$1149.50</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tenis Rebound</t>
+          <t>Playera para hombre DOWNTOWN Badge</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mex$949.50</t>
+          <t>Mex$349.50</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tenis PUMA-180</t>
+          <t>Tenis Rebound</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mex$1539.30</t>
+          <t>Mex$949.50</t>
         </is>
       </c>
     </row>
@@ -592,36 +592,36 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Tenis clásicos de mujer Mayze</t>
+          <t>Tenis PUMA-180</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mex$1609.30</t>
+          <t>Mex$1539.30</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Playera para hombre DOWNTOWN Badge</t>
+          <t>Tenis PUMA-180</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mex$349.50</t>
+          <t>Mex$1539.30</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Tenis de cuero Blktop Rider</t>
+          <t>Tenis PUMA-180</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mex$1679.30</t>
+          <t>Mex$2199.00</t>
         </is>
       </c>
     </row>
@@ -640,24 +640,24 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sandalias para mujer Mayze Stack Injex</t>
+          <t>Tenis RS-X Triple</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mex$649.50</t>
+          <t>Mex$1679.30</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Tenis casuales de piel Palermo</t>
+          <t>Tenis PUMA x STAPLE Suede</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mex$1999.00</t>
+          <t>Mex$1249.50</t>
         </is>
       </c>
     </row>
@@ -676,192 +676,192 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tenis RS-X Triple</t>
+          <t>Camiseta Classics Logo para mujer</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mex$1679.30</t>
+          <t>Mex$249.50</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Tenis PUMA-180</t>
+          <t>Tenis juveniles Mayze Wild</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mex$2199.00</t>
+          <t>Mex$899.50</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Tenis juvenil PUMA x PLAYSTATION® Suede</t>
+          <t>Sandalias Infantiles Popcat 20</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mex$949.50</t>
+          <t>Mex$249.50</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Camiseta Classics Logo para mujer</t>
+          <t>Playera Hombre Essentials</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mex$249.50</t>
+          <t>Mex$349.00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Playera Hombre Essentials</t>
+          <t>Playera estrecha para mujer Classics</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mex$349.00</t>
+          <t>Mex$249.50</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Tenis PUMA x STAPLE Suede</t>
+          <t>Mochila Buzz</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mex$1249.50</t>
+          <t>Mex$999.00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Mochila Buzz</t>
+          <t>Tenis casuales de piel Palermo</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mex$999.00</t>
+          <t>Mex$1999.00</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tenis clásicos de mujer Mayze</t>
+          <t>Sandalias para mujer Mayze Stack Injex</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mex$1149.50</t>
+          <t>Mex$649.50</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Tenis para carrera de montaña Fast-Trac NITRO 2 para hombre</t>
+          <t>Tenis de entrenamiento Prospect Neo Force</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mex$1349.50</t>
+          <t>Mex$949.50</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Vestido en rib para mujer CLASSICS</t>
+          <t>Tenis de cuero Blktop Rider</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mex$549.50</t>
+          <t>Mex$1679.30</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tenis casuales Exotek NITRO™ Base para hombre</t>
+          <t>Playera para hombre PUMA x PLAYSTATION® II</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Mex$1649.50</t>
+          <t>Mex$449.50</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Playera con logotipo Classics para hombre</t>
+          <t>Crop top en rib para mujer CLASSICS</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mex$274.50</t>
+          <t>Mex$299.50</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Chaqueta con capucha Run Favourite</t>
+          <t>Tenis deportivos BMW M Motorsport Trinity</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mex$749.50</t>
+          <t>Mex$1249.50</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Playera estrecha para mujer Classics</t>
+          <t>Tenis clásicos de mujer Mayze</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Mex$249.50</t>
+          <t>Mex$2299.00</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Tenis RBD Game</t>
+          <t>Tenis de básquetbol Genetics</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mex$1329.30</t>
+          <t>Mex$999.50</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sandalias Infantiles Popcat 20</t>
+          <t>Playera Hombre PUMA POWER</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mex$249.50</t>
+          <t>Mex$374.50</t>
         </is>
       </c>
     </row>
